--- a/Question_Set2/Role-specific skills/Customer Success Manager (SaaS).xlsx
+++ b/Question_Set2/Role-specific skills/Customer Success Manager (SaaS).xlsx
@@ -16,23 +16,68 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'What is a common consideration when mapping a customer journey?', 'ques_type': 2, 'options': ['Reply time', 'Customer satisfaction score (CSAT)', 'Customer segment', 'Net Promoter Score (NPS)'], 'score': 'Customer segment'}, {'title': 'Which of the following metrics can be used to measure customer health?', 'ques_type': 15, 'options': ['Initial monthly recurring revenue (MRR)', 'Product usage', 'Customer acquisition cost (CAC)', 'Average resolution time', 'Conversion rate', 'Net profit margin', 'Engagement', 'Rate/speed of product adoption'], 'score': ['Product usage', 'Engagement', 'Rate/speed of product adoption']}, {'title': 'You receive a request from a customer for a feature you don’t currently have and which isn’t planned on the roadmap. How do you handle the request?', 'ques_type': 2, 'options': ['Avoid setting false expectations by telling the customer you checked the roadmap and the feature is not within the scope of your product.', 'Tell the customer you will pass along the feedback, then make a request for the engineers to talk about it.', 'Ask the customer what problems they are trying to solve with the feature to understand the pain point that will inform the best solution.', 'Inform the customer of another feature that’s also valuable.'], 'score': 'Ask the customer what problems they are trying to solve with the feature to understand the pain point that will inform the best solution.'}, {'title': 'What is a good question to ask when identifying how much impact a feature request will have on a customer’s workflow?', 'ques_type': 2, 'options': ['“How much would you pay to have this feature implemented?”', '“Why do you think this feature is a good idea?”', '“Why do you need this feature?”', '“How are you currently solving the problem this feature would address?”'], 'score': '“How are you currently solving the problem this feature would address?”'}]</t>
+    <t>questions = [
+    {
+        "title": "What is a common consideration when mapping a customer journey?",
+        "ques_type": 2,
+        "options": [
+            "Reply time",
+            "Customer satisfaction score (CSAT)",
+            "Customer segment",
+            "Net Promoter Score (NPS)"
+        ],
+        "score": "Customer segment"
+    },
+    {
+        "title": "Which of the following metrics can be used to measure customer health?",
+        "ques_type": 15,
+        "options": [
+            "Initial monthly recurring revenue (MRR)",
+            "Product usage",
+            "Customer acquisition cost (CAC)",
+            "Average resolution time",
+            "Conversion rate",
+            "Net profit margin",
+            "Engagement",
+            "Rate/speed of product adoption"
+        ],
+        "score": [
+            "Product usage",
+            "Engagement",
+            "Rate/speed of product adoption"
+        ]
+    },
+    {
+        "title": "You receive a request from a customer for a feature you don\u2019t currently have and which isn\u2019t planned on the roadmap. How do you handle the request?",
+        "ques_type": 2,
+        "options": [
+            "Avoid setting false expectations by telling the customer you checked the roadmap and the feature is not within the scope of your product.",
+            "Tell the customer you will pass along the feedback, then make a request for the engineers to talk about it.",
+            "Ask the customer what problems they are trying to solve with the feature to understand the pain point that will inform the best solution.",
+            "Inform the customer of another feature that\u2019s also valuable."
+        ],
+        "score": "Ask the customer what problems they are trying to solve with the feature to understand the pain point that will inform the best solution."
+    },
+    {
+        "title": "What is a good question to ask when identifying how much impact a feature request will have on a customer\u2019s workflow?",
+        "ques_type": 2,
+        "options": [
+            "\u201cHow much would you pay to have this feature implemented?\u201d",
+            "\u201cWhy do you think this feature is a good idea?\u201d",
+            "\u201cWhy do you need this feature?\u201d",
+            "\u201cHow are you currently solving the problem this feature would address?\u201d"
+        ],
+        "score": "\u201cHow are you currently solving the problem this feature would address?\u201d"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +101,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +401,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
